--- a/sales.xlsx
+++ b/sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921178DE-9625-47BB-8AA1-873F68D9EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44BAB2-E3EE-4580-8571-4EA92FF1EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00%;\-0.00%;0.00%"/>
+    <numFmt numFmtId="164" formatCode="0.00%;\-0.00%;0.00%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -158,12 +158,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2">
         <v>117</v>
@@ -634,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>1451451</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>64</v>
@@ -687,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>15314531</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>59</v>
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>54545</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -789,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>2121</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>73</v>
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>2121</v>
+        <v>1001</v>
       </c>
       <c r="D9" s="2">
         <v>38</v>
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>212</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="2">
         <v>39</v>
@@ -948,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>45</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44BAB2-E3EE-4580-8571-4EA92FF1EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82B6C5-4843-413D-BEBC-AF00BC034531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>110</v>
+        <v>21212212</v>
       </c>
       <c r="D4" s="2">
         <v>117</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82B6C5-4843-413D-BEBC-AF00BC034531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE9860-36D2-4933-812D-3986F836ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>21212212</v>
+        <v>99999</v>
       </c>
       <c r="D4" s="2">
         <v>117</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE9860-36D2-4933-812D-3986F836ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9242E4-211D-446A-B677-EC1FD34CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
-  <si>
-    <t>Застосовані фільтри: 
-SUM_TO не пусте
-POST_NAME є продавец-консультант
-CURRENT_MONTH є Поточний Місяць</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ПК</t>
   </si>
@@ -504,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,70 +509,65 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>99999</v>
@@ -628,13 +617,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>7777</v>
       </c>
       <c r="D5" s="2">
         <v>64</v>
@@ -681,10 +670,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -734,10 +723,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -783,10 +772,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
@@ -836,10 +825,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>1001</v>
@@ -889,10 +878,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>1010</v>
@@ -942,10 +931,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9242E4-211D-446A-B677-EC1FD34CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13341BC3-0B95-470B-AC9F-3AEF222421AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>1001</v>
+        <v>6666</v>
       </c>
       <c r="D9" s="2">
         <v>38</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13341BC3-0B95-470B-AC9F-3AEF222421AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F179BD-9C80-48F1-8F5C-81E319374EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <v>30</v>
+        <v>12330</v>
       </c>
       <c r="E7" s="3">
         <v>21</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F179BD-9C80-48F1-8F5C-81E319374EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7581FE1-03DF-47C9-A77C-501521908488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>2321</v>
       </c>
       <c r="D7" s="2">
         <v>12330</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7581FE1-03DF-47C9-A77C-501521908488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC83A14-D7A3-4073-8D43-DF097396BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J19:J20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2">
         <v>59</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC83A14-D7A3-4073-8D43-DF097396BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86868A-4848-4596-A394-044CDD3DAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I19" sqref="I18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>2321</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>12330</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86868A-4848-4596-A394-044CDD3DAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80295A-C037-4B62-BA02-7F45268CBB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:J19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>73</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80295A-C037-4B62-BA02-7F45268CBB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEFE38-43C5-4494-BC25-0E653DEDD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>73</v>
+        <v>1111</v>
       </c>
       <c r="E8" s="3">
         <v>46</v>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Downloads\files (7)\sales-team\sales-team-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Documents\САЙТ результативність\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEFE38-43C5-4494-BC25-0E653DEDD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7E0DB-4D07-4313-963E-BE2CB763CFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00%;\-0.00%;0.00%"/>
+    <numFmt numFmtId="167" formatCode="0.00%;\-0.00%;0.00%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -144,20 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -176,26 +167,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:Q11">
-  <autoFilter ref="A3:Q11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A795863-5D47-4826-BE9F-CE5FFFF7FFB5}" name="Table13" displayName="Table13" ref="A3:Q11">
+  <autoFilter ref="A3:Q11" xr:uid="{2A795863-5D47-4826-BE9F-CE5FFFF7FFB5}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ПК"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Посада"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ТО"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Шт."/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Чеки"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ASP"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ср. Чек"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="КПЧ"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACC"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="% Доля ACC"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Послуги грн"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Доля Послуг"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ПЧ"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Конверсія ПК"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Конверсія ПК Offline"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="УДС"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Доля УДС"/>
+    <tableColumn id="1" xr3:uid="{257C470C-3429-4EC1-8D8B-8EEB2D0FC59A}" name="ПК"/>
+    <tableColumn id="2" xr3:uid="{83A31E3C-8075-4C50-9CB9-0B134297DDE7}" name="Посада"/>
+    <tableColumn id="3" xr3:uid="{E9BB0738-FDA3-4EA0-A2C7-E9C55FDA2920}" name="ТО"/>
+    <tableColumn id="4" xr3:uid="{F0C26E18-0BAA-4FA4-93B0-1253B3A7BE1E}" name="Шт."/>
+    <tableColumn id="5" xr3:uid="{61F19425-CAD7-46F2-AD55-96CEDBD7207B}" name="Чеки"/>
+    <tableColumn id="6" xr3:uid="{BF013048-BDF4-4CC1-8C7D-17E8FD8BB012}" name="ASP"/>
+    <tableColumn id="7" xr3:uid="{124141BE-0A15-444B-8B3A-C7FCB98D0EF6}" name="Ср. Чек"/>
+    <tableColumn id="8" xr3:uid="{5DCD4D8B-94F5-4982-871C-EA341970EE2C}" name="КПЧ"/>
+    <tableColumn id="9" xr3:uid="{3FB5E64C-B30D-4EE5-943A-1C1179E242D0}" name="ACC"/>
+    <tableColumn id="10" xr3:uid="{95DC45F4-1CDB-4E0D-91AB-2F72EFC881BE}" name="% Доля ACC"/>
+    <tableColumn id="11" xr3:uid="{C646E3AC-4EEB-4605-9985-7B23F4EBFF95}" name="Послуги грн"/>
+    <tableColumn id="12" xr3:uid="{E18BF032-683D-4A6F-A313-C5EF1FFE9F69}" name="Доля Послуг"/>
+    <tableColumn id="13" xr3:uid="{0CFA7665-0794-4A7D-9E4B-8A32948414E8}" name="ПЧ"/>
+    <tableColumn id="14" xr3:uid="{A45B1EF2-35E4-47F7-A0ED-F0B9C34CD795}" name="Конверсія ПК"/>
+    <tableColumn id="15" xr3:uid="{42E77328-006A-48AB-AC66-96DFA2A25F65}" name="Конверсія ПК Offline"/>
+    <tableColumn id="16" xr3:uid="{4DF66560-7A11-4C4D-B668-8262990EC38B}" name="УДС"/>
+    <tableColumn id="17" xr3:uid="{83FD9FD8-6E9E-4DE2-A818-1A18787955AA}" name="Доля УДС"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,13 +492,10 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A3" sqref="A3:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -569,103 +557,103 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>99999</v>
+      <c r="C4" s="2">
+        <v>1000900.6</v>
       </c>
       <c r="D4" s="2">
-        <v>117</v>
-      </c>
-      <c r="E4" s="3">
-        <v>66</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6933.4470085470102</v>
-      </c>
-      <c r="G4" s="5">
-        <v>12291.1106060606</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.77272727272727</v>
+        <v>144</v>
+      </c>
+      <c r="E4" s="1">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6950.69861111111</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11504.6045977011</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6551724137931001</v>
       </c>
       <c r="I4">
-        <v>134348</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.16561365549603299</v>
-      </c>
-      <c r="K4" s="8">
-        <v>34074.300000000003</v>
-      </c>
-      <c r="L4" s="9">
-        <v>4.2004119015307102E-2</v>
+        <v>144236.4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.14410661758020701</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44368.3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4.4328377862896701E-2</v>
       </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.32979387882573402</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0.23232323232323199</v>
+        <v>7</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.35820895522388102</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.25416666666666698</v>
       </c>
       <c r="P4">
-        <v>284810</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0.35109138373347698</v>
+        <v>350095.6</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.349780587602805</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
-        <v>7777</v>
+      <c r="C5" s="2">
+        <v>432233.5</v>
       </c>
       <c r="D5" s="2">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3">
-        <v>47</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6168.9125000000004</v>
-      </c>
-      <c r="G5" s="5">
-        <v>8400.2212765957393</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.36170212765957</v>
+        <v>57</v>
+      </c>
+      <c r="E5" s="1">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7583.0438596491203</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9396.3804347826099</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.23913043478261</v>
       </c>
       <c r="I5">
-        <v>25984.3</v>
-      </c>
-      <c r="J5" s="7">
-        <v>6.5814628996601898E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>19438</v>
-      </c>
-      <c r="L5" s="9">
-        <v>4.9233758786496003E-2</v>
+        <v>46628.9</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.107878958942331</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17670</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.0880681390961099E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.23485321673953799</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0.185929648241206</v>
+        <v>7</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.18939783839423599</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.14462809917355399</v>
       </c>
       <c r="P5">
-        <v>76758.600000000006</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0.19441889068778301</v>
+        <v>93099.8</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.21539237472338399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -675,99 +663,103 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
-        <v>111</v>
+      <c r="C6" s="2">
+        <v>427219.5</v>
       </c>
       <c r="D6" s="2">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5425.7288135593199</v>
-      </c>
-      <c r="G6" s="5">
-        <v>8002.95</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1.4750000000000001</v>
+        <v>88</v>
+      </c>
+      <c r="E6" s="1">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4854.7670454545496</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7003.5983606557402</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.44262295081967</v>
       </c>
       <c r="I6">
-        <v>41667.199999999997</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.13016200276148199</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2097</v>
-      </c>
-      <c r="L6" s="9">
-        <v>6.5507094258991996E-3</v>
+        <v>50954.9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.11927100705843199</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6309</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.4767584344815701E-2</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.199875078076202</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.17085427135678399</v>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.25115800308800801</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.19917012448132801</v>
       </c>
       <c r="P6">
         <v>92772.2</v>
       </c>
-      <c r="Q6" s="12">
-        <v>0.289806258942015</v>
+      <c r="Q6" s="3">
+        <v>0.217153477310844</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
+      <c r="C7" s="2">
+        <v>411361.2</v>
       </c>
       <c r="D7" s="2">
-        <v>12330</v>
-      </c>
-      <c r="E7" s="3">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8905.7433333333302</v>
-      </c>
-      <c r="G7" s="5">
-        <v>12722.4904761905</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.4285714285714299</v>
+        <v>66</v>
+      </c>
+      <c r="E7" s="1">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6232.7454545454502</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8395.1265306122496</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.3469387755102</v>
       </c>
       <c r="I7">
-        <v>7967.8</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2.9822702428358001E-2</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+        <v>25984.3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6.3166628257599403E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>19438</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4.7252876547423502E-2</v>
+      </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.104934415990006</v>
-      </c>
-      <c r="O7" s="11">
-        <v>7.0351758793969807E-2</v>
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.20174987133298999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.161157024793388</v>
       </c>
       <c r="P7">
-        <v>28499.9</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0.10667236086974601</v>
+        <v>90488.9</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.219974319405914</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -777,103 +769,99 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
-        <v>44</v>
+      <c r="C8" s="2">
+        <v>323447.3</v>
       </c>
       <c r="D8" s="2">
-        <v>1111</v>
-      </c>
-      <c r="E8" s="3">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3443.9602739726001</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5465.4152173912998</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.5869565217391299</v>
+        <v>91</v>
+      </c>
+      <c r="E8" s="1">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3554.3659340659301</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5482.1576271186404</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.5423728813559301</v>
       </c>
       <c r="I8">
-        <v>36092.5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.143560833716838</v>
-      </c>
-      <c r="K8" s="8">
-        <v>12672</v>
-      </c>
-      <c r="L8" s="9">
-        <v>5.0403903438658401E-2</v>
+        <v>41259.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.12756173880567301</v>
+      </c>
+      <c r="K8" s="2">
+        <v>14571</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4.5049069817556103E-2</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
-      <c r="N8" s="10">
-        <v>0.22985633978763301</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0.180904522613065</v>
+      <c r="N8" s="3">
+        <v>0.242923314462172</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.195020746887967</v>
       </c>
       <c r="P8">
-        <v>46077.8</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>0.183278170917441</v>
+        <v>58236.800000000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.18005035132462099</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
-        <v>6666</v>
+      <c r="C9" s="2">
+        <v>304694.8</v>
       </c>
       <c r="D9" s="2">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5323.9026315789497</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6976.1482758620696</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1.31034482758621</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="1">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9233.1757575757601</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13247.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.4347826086956501</v>
       </c>
       <c r="I9">
-        <v>34847.699999999997</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.17225047118679801</v>
-      </c>
-      <c r="K9" s="8">
-        <v>5543</v>
-      </c>
-      <c r="L9" s="9">
-        <v>2.7398777015080401E-2</v>
-      </c>
+        <v>8412.2999999999993</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.7608938518150002E-2</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.144909431605247</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0.10552763819095499</v>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>9.4698919197117898E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6.1983471074380202E-2</v>
       </c>
       <c r="P9">
-        <v>46549.9</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0.230093871581146</v>
+        <v>47038.9</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.15438038325563799</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -883,50 +871,50 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
-        <v>1010</v>
+      <c r="C10" s="2">
+        <v>248866.7</v>
       </c>
       <c r="D10" s="2">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4471.4025641025601</v>
-      </c>
-      <c r="G10" s="5">
-        <v>6458.6925925925898</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1.44444444444444</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5184.7229166666702</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7319.6088235294101</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.4117647058823499</v>
       </c>
       <c r="I10">
-        <v>24726.5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.14179282930211201</v>
-      </c>
-      <c r="K10" s="8">
-        <v>3096</v>
-      </c>
-      <c r="L10" s="9">
-        <v>1.7753851111938099E-2</v>
+        <v>28821.1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.11580938711366399</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3394</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.3637822979128999E-2</v>
       </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.134915677701437</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.115</v>
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.139989706639218</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.12396694214876</v>
       </c>
       <c r="P10">
-        <v>41798.699999999997</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>0.239692473020856</v>
+        <v>81398.600000000006</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.32707710593663197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -936,46 +924,46 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
+      <c r="C11" s="2">
+        <v>88727.7</v>
       </c>
       <c r="D11" s="2">
         <v>45</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>22</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>1971.7266666666701</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>4033.0772727272702</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="1">
         <v>2.0454545454545499</v>
       </c>
       <c r="I11">
         <v>27342.5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>0.30816193815460102</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="2">
         <v>99</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="3">
         <v>1.1157733154358799E-3</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="10">
-        <v>0.10993129294191099</v>
-      </c>
-      <c r="O11" s="11">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="Q11" s="12"/>
+      <c r="N11" s="3">
+        <v>9.0581574884199698E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>7.0247933884297495E-2</v>
+      </c>
+      <c r="Q11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Documents\САЙТ результативність\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7E0DB-4D07-4313-963E-BE2CB763CFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B3486-38FB-442C-85F0-5D0F8409DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00%;\-0.00%;0.00%"/>
+    <numFmt numFmtId="164" formatCode="0.00%;\-0.00%;0.00%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -492,7 +492,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q11"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Documents\САЙТ результативність\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B3486-38FB-442C-85F0-5D0F8409DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A227F48-87D5-48BC-92D8-D151387FEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolaiev-ye\Documents\САЙТ результативність\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E79C27E-3D23-47F5-BFB5-F9F5899C626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3AA572-230E-4A14-BE47-D0EB7A8916A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A3:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>90000</v>
+        <v>88728</v>
       </c>
       <c r="D11" s="2">
         <v>45</v>
